--- a/Analysis/scale/10.xlsx
+++ b/Analysis/scale/10.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -597,8 +597,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -941,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WB64"/>
+  <dimension ref="A1:WB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22771,7 +22772,7 @@
         <v>1044</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:BA43" si="0">D18-C18</f>
+        <f t="shared" ref="D43:AY43" si="0">D18-C18</f>
         <v>1075</v>
       </c>
       <c r="E43">
@@ -22965,7 +22966,7 @@
     </row>
     <row r="44" spans="1:600" x14ac:dyDescent="0.25">
       <c r="B44" t="e">
-        <f t="shared" ref="B44:C107" si="1">B19-A19</f>
+        <f t="shared" ref="B44:C61" si="1">B19-A19</f>
         <v>#VALUE!</v>
       </c>
       <c r="C44">
@@ -22973,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:BA44" si="2">D19-C19</f>
+        <f t="shared" ref="D44:AY44" si="2">D19-C19</f>
         <v>0</v>
       </c>
       <c r="E44">
@@ -23175,7 +23176,7 @@
         <v>1043</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:BA45" si="3">D20-C20</f>
+        <f t="shared" ref="D45:AY45" si="3">D20-C20</f>
         <v>1075</v>
       </c>
       <c r="E45">
@@ -23377,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:BA46" si="4">D21-C21</f>
+        <f t="shared" ref="D46:AY46" si="4">D21-C21</f>
         <v>0</v>
       </c>
       <c r="E46">
@@ -23579,7 +23580,7 @@
         <v>1059</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:BA47" si="5">D22-C22</f>
+        <f t="shared" ref="D47:AY47" si="5">D22-C22</f>
         <v>1047</v>
       </c>
       <c r="E47">
@@ -23781,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:BA48" si="6">D23-C23</f>
+        <f t="shared" ref="D48:AY48" si="6">D23-C23</f>
         <v>0</v>
       </c>
       <c r="E48">
@@ -23983,7 +23984,7 @@
         <v>1036</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:BA49" si="7">D24-C24</f>
+        <f t="shared" ref="D49:AY49" si="7">D24-C24</f>
         <v>1057</v>
       </c>
       <c r="E49">
@@ -24185,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:BA50" si="8">D25-C25</f>
+        <f t="shared" ref="D50:AY50" si="8">D25-C25</f>
         <v>0</v>
       </c>
       <c r="E50">
@@ -24387,7 +24388,7 @@
         <v>1041</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:BA51" si="9">D26-C26</f>
+        <f t="shared" ref="D51:AY51" si="9">D26-C26</f>
         <v>1058</v>
       </c>
       <c r="E51">
@@ -24589,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:BA52" si="10">D27-C27</f>
+        <f t="shared" ref="D52:AY52" si="10">D27-C27</f>
         <v>0</v>
       </c>
       <c r="E52">
@@ -24791,7 +24792,7 @@
         <v>1037</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:BA53" si="11">D28-C28</f>
+        <f t="shared" ref="D53:AY53" si="11">D28-C28</f>
         <v>1041</v>
       </c>
       <c r="E53">
@@ -24993,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54:BA54" si="12">D29-C29</f>
+        <f t="shared" ref="D54:AY54" si="12">D29-C29</f>
         <v>0</v>
       </c>
       <c r="E54">
@@ -25195,7 +25196,7 @@
         <v>1022</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:BA55" si="13">D30-C30</f>
+        <f t="shared" ref="D55:AY55" si="13">D30-C30</f>
         <v>1061</v>
       </c>
       <c r="E55">
@@ -25397,7 +25398,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:BA56" si="14">D31-C31</f>
+        <f t="shared" ref="D56:AY56" si="14">D31-C31</f>
         <v>0</v>
       </c>
       <c r="E56">
@@ -25599,7 +25600,7 @@
         <v>997</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:BA57" si="15">D32-C32</f>
+        <f t="shared" ref="D57:AY57" si="15">D32-C32</f>
         <v>1058</v>
       </c>
       <c r="E57">
@@ -25801,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:BA58" si="16">D33-C33</f>
+        <f t="shared" ref="D58:AY58" si="16">D33-C33</f>
         <v>0</v>
       </c>
       <c r="E58">
@@ -26003,7 +26004,7 @@
         <v>983</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:BA59" si="17">D34-C34</f>
+        <f t="shared" ref="D59:AY59" si="17">D34-C34</f>
         <v>1081</v>
       </c>
       <c r="E59">
@@ -26205,7 +26206,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:BA60" si="18">D35-C35</f>
+        <f t="shared" ref="D60:AY60" si="18">D35-C35</f>
         <v>0</v>
       </c>
       <c r="E60">
@@ -26407,7 +26408,7 @@
         <v>974</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:BA61" si="19">D36-C36</f>
+        <f t="shared" ref="D61:AY61" si="19">D36-C36</f>
         <v>1107</v>
       </c>
       <c r="E61">
@@ -26611,6 +26612,15 @@
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f>COUNTIF(B43:AY61, "&gt;0")</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
